--- a/EduAnalysisTool/input_tool/edu_table_helper_FR_HTI1.xlsx
+++ b/EduAnalysisTool/input_tool/edu_table_helper_FR_HTI1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNAEdu/EduAnalysisTool/input_tool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNA_2024_EduAnalysis/EduAnalysisTool/input_tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{12BE1669-350D-4A48-9691-8F4FC8C1B4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A43962BE-8DDA-4300-B462-DB624ADB670A}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{12BE1669-350D-4A48-9691-8F4FC8C1B4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C38E290-850E-48F1-80E8-83E259C61A90}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
   </bookViews>
   <sheets>
     <sheet name="access" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="level2" sheetId="6" r:id="rId6"/>
     <sheet name="level3" sheetId="7" r:id="rId7"/>
     <sheet name="level4" sheetId="8" r:id="rId8"/>
+    <sheet name="non_formal" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="58">
   <si>
     <t>tab</t>
   </si>
@@ -84,9 +85,6 @@
     <t>Non-scolarisation</t>
   </si>
   <si>
-    <t>% d'enfants en âge scolaire n'ayant pas fréquenté l'école ou un programme d'éducation pré-primaire à n'importe quel moment de l'année scolaire 2023-2024</t>
-  </si>
-  <si>
     <t>Barrières</t>
   </si>
   <si>
@@ -96,9 +94,6 @@
     <t>% d'enfants en âge de fréquenter l'école primaire ou plus</t>
   </si>
   <si>
-    <t>% d'enfants avec 2 ans de plus que l'âge prévu : primaire</t>
-  </si>
-  <si>
     <t>Ensemble</t>
   </si>
   <si>
@@ -111,9 +106,6 @@
     <t>% d'enfants en âge de niveau intermédiaire actuellement scolarisés au niveau intermédiaire ou plus</t>
   </si>
   <si>
-    <t>% d'enfants avec 2 ans de plus que l'âge prévu : secondaire</t>
-  </si>
-  <si>
     <t>% d'enfants en âge de secondaire actuellement scolarisés au secondaire ou plus</t>
   </si>
   <si>
@@ -153,41 +145,86 @@
     <t>Autre</t>
   </si>
   <si>
+    <t>Analyse des élèves en retard scolaire</t>
+  </si>
+  <si>
+    <t>Retard scolaire</t>
+  </si>
+  <si>
+    <t>% d'enfants en âge scolaire dont l'éducation a été interrompue en raison de l'absence d'enseignants</t>
+  </si>
+  <si>
+    <t>% d'enfants en âge scolaire dont l'éducation a été interrompue par des risques naturels</t>
+  </si>
+  <si>
+    <t>% d'enfants en âge scolaire dont l'école a été occupée par des déplacés</t>
+  </si>
+  <si>
+    <t>% d'enfants avec 2 ans de plus que l'âge prévu : Enseignement fondamental</t>
+  </si>
+  <si>
+    <t>% d'enfants avec 2 ans de plus que l'âge prévu : 3ème cycle du fondamental</t>
+  </si>
+  <si>
+    <t>% d'enfants avec 2 ans de plus que l'âge prévu : Nouveau Secondaire</t>
+  </si>
+  <si>
+    <t>% d'enfants en âge scolaire dont l'éducation a été perturbée par des attaques directes contre l'éducation</t>
+  </si>
+  <si>
+    <t>non_formal</t>
+  </si>
+  <si>
+    <t>Analyse des enfants accédant à l'éducation en dehors des écoles formelles</t>
+  </si>
+  <si>
+    <t>Non-formel</t>
+  </si>
+  <si>
+    <t>% d'enfants accédant à l'éducation en dehors des écoles formelles</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Enseignement  non formel à distance en ligne</t>
+  </si>
+  <si>
+    <t>Leçons délivrées par des leaders religieux dans des foyers, fondations ou centre juvénile</t>
+  </si>
+  <si>
+    <t>Leçons privées, délivrées par un membre de la famille ou un membre de la communauté</t>
+  </si>
+  <si>
+    <t>Programmes d'éducation mis en place par des ONGs</t>
+  </si>
+  <si>
     <t>Impossibilité de payer les coûts directs de l'éducation</t>
   </si>
   <si>
-    <t>Manque d'intérêt / L'éducation n'est pas une priorité pour l'enfant ou le ménage</t>
+    <t>L'enfant est trop jeune</t>
   </si>
   <si>
     <t>Le handicap ou les problèmes de santé de l'enfant l'empêchent d'aller à l'école</t>
   </si>
   <si>
-    <t>Analyse des élèves en retard scolaire</t>
-  </si>
-  <si>
-    <t>Retard scolaire</t>
-  </si>
-  <si>
-    <t>L'école a été fermée en raison de dommages d'une catastrophe naturelle ou d'un conflit</t>
-  </si>
-  <si>
-    <t>% d'enfants en âge scolaire dont l'éducation a été interrompue en raison de l'absence d'enseignants</t>
-  </si>
-  <si>
-    <t>% d'enfants en âge scolaire dont l'éducation a été interrompue par des risques naturels</t>
-  </si>
-  <si>
-    <t>% d'enfants en âge scolaire dont l'école a été occupée par des déplacés</t>
-  </si>
-  <si>
-    <t>% d'enfants d'âge scolaire dont l'éducation a été interrompue par l'occupation de l'école par les forces armées</t>
+    <t>Manque d'intérêt pour l'éducation formelle</t>
+  </si>
+  <si>
+    <t>L'école a été fermée en raison de dommages, d'une catastrophe naturelle ou d'un conflit.</t>
+  </si>
+  <si>
+    <t>% d'enfants en âge scolaire ayant fréquenté l'école ou un programme d'éducation pré-primaire en 2024-2025</t>
+  </si>
+  <si>
+    <t>% d'enfants en âge scolaire n'ayant pas fréquenté l'école ou un programme d'éducation pré-primaire à n'importe quel moment de l'année scolaire 2024-2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,8 +240,27 @@
       <charset val="222"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFEAEAEA"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -217,12 +273,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFFFEFC1"/>
+        <fgColor rgb="FF2C2828"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -230,19 +286,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD3D3D3"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF0C1F30"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF0C1F30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF424242"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF424242"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF424242"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF424242"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,18 +676,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0B085A-F222-4D02-94C7-458C197FFE9F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="38.26953125" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" customWidth="1"/>
     <col min="6" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -613,48 +710,48 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="G5" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G5" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -664,22 +761,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08680CC-21CB-4C65-AC6D-F24FF5598654}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="28.86328125" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="38.26953125" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" customWidth="1"/>
     <col min="6" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -702,62 +799,72 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="3"/>
+      <c r="H4" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39444B71-EEA9-4171-A7FB-692AC9A3C4DA}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="28.86328125" customWidth="1"/>
+    <col min="1" max="7" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -780,53 +887,59 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+      <c r="G2" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+        <v>30</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="G5" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="G6" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G5" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G6" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -837,21 +950,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675A8981-F8A2-408A-9A14-DF2744D820F7}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="28.86328125" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="38.26953125" customWidth="1"/>
-    <col min="6" max="6" width="33.7265625" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -874,64 +987,70 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+        <v>30</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A578C6AC-945F-43C7-88F6-0991BAC5AA47}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="28.86328125" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="38.26953125" customWidth="1"/>
-    <col min="6" max="6" width="33.7265625" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -954,43 +1073,44 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -999,19 +1119,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB6243-7252-47E5-AC13-C1BFCCE2E7EE}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="28.86328125" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="38.26953125" customWidth="1"/>
-    <col min="6" max="6" width="33.7265625" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1034,40 +1154,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1079,19 +1196,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B3E788-8021-4125-8D0E-F28A9B53C11D}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="28.86328125" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="38.26953125" customWidth="1"/>
-    <col min="6" max="6" width="33.7265625" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1114,37 +1231,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1156,19 +1273,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA05FE4-DC30-4D72-BCB6-840C7E1C2CD0}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="28.86328125" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="38.26953125" customWidth="1"/>
-    <col min="6" max="6" width="33.7265625" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1191,15 +1308,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -1208,20 +1325,112 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC05780-2403-4E25-9B57-5174989155B6}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" customWidth="1"/>
+    <col min="6" max="7" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
